--- a/src/main/resources/output.xlsx
+++ b/src/main/resources/output.xlsx
@@ -12,7 +12,179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+  <si>
+    <t>QQQTAGPRODUCTTYPETAGQQQ</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>biscuits</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>tea, coffee &amp; QQQTAGSUBCATEGORYTAGQQQ</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>tea, QQQTAGCATEGORYTAGQQQ</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>dry QQQTAGPRODUCTTYPETAGQQQ &amp; gifts QQQTAGCOMPANYTAGQQQ</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>dry fruits and QQQTAGSUBCATEGORYTAGQQQ</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>online shoppingQQQTAGNUMBERTAGQQQlargest online shopping site for electronics, mobile, fashion &amp; homeQQQTAGNUMBERTAGQQQQQQTAGSOURCETAGQQQ</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>online shopping - largest online shopping site for QQQTAGCATEGORYTAGQQQ, mobile, fashion and home - QQQTAGBRANDTAGQQQ</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>insurance &amp; warranty</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>insurance and warranty</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>download the QQQTAGCOMMONTECHNICALTERMTAGQQQ and get exciting</t>
+  </si>
+  <si>
+    <t>download the app and get exciting</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>QQQTAGSUBCATEGORYTAGQQQ, QQQTAGENTITYVALUETAGQQQ &amp; spices</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>staples, oils and spices</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>QQQTAGSUBCATEGORYTAGQQQ</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>ready to cook and eat</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>sauces and dressings</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>cables and QQQTAGPRODUCTTYPETAGQQQ</t>
+  </si>
+  <si>
+    <t>QQQTAGSUBCATEGORYTAGQQQ &amp; candies</t>
+  </si>
+  <si>
+    <t>chocolates and candies</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>browse our faqs or submit your query here.</t>
+  </si>
+  <si>
+    <t>browse our QQQTAGNDWTAGQQQ or submit your query here.</t>
+  </si>
+  <si>
+    <t>QQQTAGPRODUCTTYPETAGQQQ, soups &amp; pastas</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>noodles, soups and pastas</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>QQQTAGBRANDTAGQQQ</t>
+  </si>
+  <si>
+    <t>QQQTAGCOMMONTECHNICALTERMTAGQQQ only offers at your fingertips</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>app only offers at your fingertips</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>QQQTAGCOMPANYTAGQQQ bg105/QQQTAGQUANTITYTAGQQQ groomer black and red,</t>
+  </si>
+  <si>
+    <t>QQQTAGBRANDTAGQQQ QQQTAGALNUMTAGQQQ QQQTAGNDWTAGQQQ body groomer black and red,</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>QQQTAGCATEGORYTAGQQQ</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +232,274 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>